--- a/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680E2D0-1E7B-4494-903E-C4175B47A5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF6082F-528B-4D6B-B9A6-BF3E85DC351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>company_code</t>
   </si>
@@ -178,13 +178,70 @@
   </si>
   <si>
     <t>*ถ้าสถานะการออกเป็น 1 จำเป็นต้องกรอก</t>
+  </si>
+  <si>
+    <t>เฟสบุ๊ค</t>
+  </si>
+  <si>
+    <t>ไลน์</t>
+  </si>
+  <si>
+    <t>อีเมล์</t>
+  </si>
+  <si>
+    <t>เบอร์โทรฯ</t>
+  </si>
+  <si>
+    <t>worker_tel</t>
+  </si>
+  <si>
+    <t>worker_email</t>
+  </si>
+  <si>
+    <t>worker_line</t>
+  </si>
+  <si>
+    <t>worker_facebook</t>
+  </si>
+  <si>
+    <t>worker@mail.com</t>
+  </si>
+  <si>
+    <t>lineid</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>worker_military</t>
+  </si>
+  <si>
+    <t>สถานภาพทางทหาร</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0 - ไม่มี</t>
+  </si>
+  <si>
+    <t>A - หนีทหาร</t>
+  </si>
+  <si>
+    <t>N - ยังไม่เกณฑ์ทหาร</t>
+  </si>
+  <si>
+    <t>E - ได้รับการยกเว้น</t>
+  </si>
+  <si>
+    <t>P - ผ่านการเกณฑ์ทหารแล้ว</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +262,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -235,10 +306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,8 +325,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -277,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,9 +398,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,26 +433,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,26 +468,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -625,72 +672,87 @@
     <col min="21" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="V1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -754,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,10 +844,14 @@
     <col min="19" max="19" width="21.21875" customWidth="1"/>
     <col min="20" max="20" width="22.5546875" customWidth="1"/>
     <col min="21" max="21" width="13.33203125" customWidth="1"/>
-    <col min="22" max="22" width="17.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="21.88671875" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" customWidth="1"/>
+    <col min="26" max="26" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -849,8 +915,23 @@
       <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="V1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -914,8 +995,23 @@
       <c r="U2" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="V2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -969,15 +1065,58 @@
       <c r="U3" s="5">
         <v>8</v>
       </c>
+      <c r="V3" s="5">
+        <v>992123122</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="P4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z13" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W3" r:id="rId1" xr:uid="{6D8344B8-B7D7-4280-A6E6-A42EF05CEE47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF6082F-528B-4D6B-B9A6-BF3E85DC351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F348C2-EA4A-4CAD-B0BE-587C87173A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>company_code</t>
   </si>
@@ -147,9 +147,6 @@
     <t>วันที่เริ่มงาน</t>
   </si>
   <si>
-    <t>สถานะพนักงาน</t>
-  </si>
-  <si>
     <t>รหัสศาสนา</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>P - ผ่านการเกณฑ์ทหารแล้ว</t>
+  </si>
+  <si>
+    <t>รหัสสถานะพนักงาน</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -670,142 +670,105 @@
     <col min="19" max="19" width="19.33203125" customWidth="1"/>
     <col min="20" max="20" width="22.109375" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" customWidth="1"/>
+    <col min="25" max="25" width="18.21875" customWidth="1"/>
+    <col min="26" max="26" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="11" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>63</v>
+      <c r="Z1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2">
-        <v>29280</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44963</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>129</v>
-      </c>
-      <c r="S2" s="2">
-        <v>44963</v>
-      </c>
-      <c r="T2" s="2">
-        <v>45077</v>
-      </c>
-      <c r="U2">
-        <v>8</v>
-      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -818,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,19 +879,19 @@
         <v>18</v>
       </c>
       <c r="V1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>63</v>
+      <c r="Z1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -966,49 +929,49 @@
         <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="V2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1069,46 +1032,46 @@
         <v>992123122</v>
       </c>
       <c r="W3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Z3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="P4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Z13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
+++ b/OPRFileImport/(OPR)Import emp/(OPR)Import Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F348C2-EA4A-4CAD-B0BE-587C87173A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1B327-AD83-44B8-BBCB-A78674331D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>company_code</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>รหัสสถานะพนักงาน</t>
+  </si>
+  <si>
+    <t>worker_height</t>
+  </si>
+  <si>
+    <t>worker_weight</t>
+  </si>
+  <si>
+    <t>น้ำหนัก(กก)</t>
+  </si>
+  <si>
+    <t>ส่วนสูง(ซม)</t>
   </si>
 </sst>
 </file>
@@ -644,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -677,7 +689,7 @@
     <col min="26" max="26" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,44 +732,50 @@
       <c r="N1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="J2" s="2"/>
@@ -779,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,21 +818,21 @@
     <col min="11" max="11" width="15.21875" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="17" width="19.77734375" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="21.21875" customWidth="1"/>
-    <col min="20" max="20" width="22.5546875" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="21.88671875" customWidth="1"/>
-    <col min="24" max="24" width="13.5546875" customWidth="1"/>
-    <col min="25" max="25" width="16.88671875" customWidth="1"/>
-    <col min="26" max="26" width="23.88671875" customWidth="1"/>
+    <col min="14" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="18" max="19" width="19.77734375" customWidth="1"/>
+    <col min="20" max="20" width="22" customWidth="1"/>
+    <col min="21" max="21" width="21.21875" customWidth="1"/>
+    <col min="22" max="22" width="22.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="21.88671875" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="16.88671875" customWidth="1"/>
+    <col min="28" max="28" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,44 +875,50 @@
       <c r="N1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -938,43 +962,49 @@
         <v>42</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1013,70 +1043,72 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="5">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="5">
         <v>0</v>
       </c>
-      <c r="R3" s="5">
+      <c r="T3" s="5">
         <v>129</v>
       </c>
-      <c r="S3" s="7">
+      <c r="U3" s="7">
         <v>44963</v>
       </c>
-      <c r="T3" s="7">
+      <c r="V3" s="7">
         <v>45077</v>
       </c>
-      <c r="U3" s="5">
+      <c r="W3" s="5">
         <v>8</v>
       </c>
-      <c r="V3" s="5">
+      <c r="X3" s="5">
         <v>992123122</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="P4" s="3" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="R4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Z9" s="1" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Z10" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Z11" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Z12" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Z13" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB13" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W3" r:id="rId1" xr:uid="{6D8344B8-B7D7-4280-A6E6-A42EF05CEE47}"/>
+    <hyperlink ref="Y3" r:id="rId1" xr:uid="{6D8344B8-B7D7-4280-A6E6-A42EF05CEE47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
